--- a/03.バック設計/CODA_INOUT定義.xlsx
+++ b/03.バック設計/CODA_INOUT定義.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakuda/iret/labo/CODA/CODA_DOCUMENT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakuda/iret/labo/CODA/CODA_DOCUMENT/03.バック設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D94BA2-0662-8648-BD89-D31B514EC459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7976ABD2-30F7-FF49-9483-5910473E1958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34020" yWindow="4040" windowWidth="27020" windowHeight="12240" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
+    <workbookView xWindow="-35080" yWindow="1760" windowWidth="27020" windowHeight="12240" activeTab="3" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
   </bookViews>
   <sheets>
     <sheet name="C001.ユーザーアカウント新規登録" sheetId="2" r:id="rId1"/>
     <sheet name="C002.ユーザーアカウント情報取得" sheetId="5" r:id="rId2"/>
     <sheet name="C003.ユーザーアカウント削除" sheetId="6" r:id="rId3"/>
-    <sheet name="C004.譜面一覧取得" sheetId="7" r:id="rId4"/>
-    <sheet name="C005.譜面新規登録" sheetId="8" r:id="rId5"/>
-    <sheet name="C006.譜面削除" sheetId="9" r:id="rId6"/>
+    <sheet name="C004.ユーザーアカウント認証" sheetId="10" r:id="rId4"/>
+    <sheet name="C101.譜面一覧取得" sheetId="7" r:id="rId5"/>
+    <sheet name="C102.譜面新規登録" sheetId="8" r:id="rId6"/>
+    <sheet name="C103.譜面削除" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="67">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -243,10 +244,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C005</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>譜面新規登録</t>
     <rPh sb="0" eb="2">
       <t>フメn</t>
@@ -271,10 +268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>譜面削除</t>
     <rPh sb="0" eb="2">
       <t>フメn</t>
@@ -398,6 +391,53 @@
   </si>
   <si>
     <t>{score_id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーアカウント認証</t>
+    <rPh sb="9" eb="11">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/user_accounts/check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名及びパスワードが正しいか確認する</t>
+    <rPh sb="0" eb="4">
+      <t>ユーザーアカウントヲ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクゼィオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証結果</t>
+    <rPh sb="0" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -551,7 +591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,15 +613,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -591,17 +622,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C833ADDD-B464-9A45-B332-8B5525D5400A}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -936,67 +973,67 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1020,15 +1057,15 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="8"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -1037,15 +1074,15 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="8"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -1054,7 +1091,7 @@
       <c r="I10" s="6"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1074,15 +1111,15 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11" t="s">
-        <v>49</v>
+      <c r="A14" s="14"/>
+      <c r="B14" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
@@ -1106,7 +1143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC08D87-797A-DE4F-9F57-701A2FDC2220}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1123,61 +1162,61 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5"/>
@@ -1186,7 +1225,7 @@
       <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1206,29 +1245,28 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11" t="s">
-        <v>52</v>
+      <c r="A9" s="14"/>
+      <c r="B9" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="12" t="s">
         <v>41</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1248,29 +1286,29 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
@@ -1311,61 +1349,61 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5"/>
@@ -1374,41 +1412,41 @@
       <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11" t="s">
-        <v>52</v>
+      <c r="A9" s="14"/>
+      <c r="B9" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1428,7 +1466,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1451,10 +1489,192 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9D74D3-1BE5-6B49-A50E-82AD538A7883}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14"/>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14"/>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14"/>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0020ADB7-AD77-7944-8FDC-8D2440E43DEE}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1471,67 +1691,67 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1555,15 +1775,15 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11" t="s">
-        <v>52</v>
+      <c r="A9" s="14"/>
+      <c r="B9" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="12" t="s">
         <v>41</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -1572,7 +1792,7 @@
       <c r="I9" s="6"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1592,24 +1812,24 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="8"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="8"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
@@ -1630,11 +1850,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C93B3F1-EAC1-FA49-AAD8-A8104ED3CBFA}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1651,67 +1873,67 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1735,15 +1957,15 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="8"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>41</v>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -1752,15 +1974,15 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="8"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -1769,7 +1991,7 @@
       <c r="I10" s="6"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1789,12 +2011,12 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="8"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
@@ -1815,11 +2037,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26808245-359A-7D47-8A73-FC2CD23547DC}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1836,67 +2060,67 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1920,15 +2144,15 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="8"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -1937,7 +2161,7 @@
       <c r="I9" s="6"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1957,7 +2181,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="8"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>

--- a/03.バック設計/CODA_INOUT定義.xlsx
+++ b/03.バック設計/CODA_INOUT定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakuda/iret/labo/CODA/CODA_DOCUMENT/03.バック設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7976ABD2-30F7-FF49-9483-5910473E1958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D72CC92-BCD2-614B-A1F9-04CC39202657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35080" yWindow="1760" windowWidth="27020" windowHeight="12240" activeTab="3" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
+    <workbookView xWindow="32140" yWindow="5260" windowWidth="27020" windowHeight="12240" activeTab="1" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
   </bookViews>
   <sheets>
     <sheet name="C001.ユーザーアカウント新規登録" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="66">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -335,10 +335,6 @@
   </si>
   <si>
     <t>user_account_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>username</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1143,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC08D87-797A-DE4F-9F57-701A2FDC2220}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1247,7 +1243,7 @@
     <row r="9" spans="1:6">
       <c r="A9" s="14"/>
       <c r="B9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>41</v>
@@ -1288,7 +1284,7 @@
     <row r="13" spans="1:6">
       <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
@@ -1374,7 +1370,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -1434,7 +1430,7 @@
     <row r="9" spans="1:6">
       <c r="A9" s="14"/>
       <c r="B9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>41</v>
@@ -1492,7 +1488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9D74D3-1BE5-6B49-A50E-82AD538A7883}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1522,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -1534,7 +1532,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -1558,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -1594,7 +1592,7 @@
     <row r="9" spans="1:6">
       <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
@@ -1642,10 +1640,10 @@
     <row r="14" spans="1:6">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>39</v>
@@ -1673,7 +1671,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1692,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -1777,7 +1775,7 @@
     <row r="9" spans="1:10">
       <c r="A9" s="14"/>
       <c r="B9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>41</v>
@@ -1814,10 +1812,10 @@
     <row r="13" spans="1:10">
       <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
@@ -1826,10 +1824,10 @@
     <row r="14" spans="1:10">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
@@ -1874,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -1959,10 +1957,10 @@
     <row r="9" spans="1:10">
       <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>39</v>
@@ -1976,10 +1974,10 @@
     <row r="10" spans="1:10">
       <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>39</v>
@@ -2013,10 +2011,10 @@
     <row r="14" spans="1:10">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
@@ -2061,7 +2059,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -2146,10 +2144,10 @@
     <row r="9" spans="1:10">
       <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>39</v>

--- a/03.バック設計/CODA_INOUT定義.xlsx
+++ b/03.バック設計/CODA_INOUT定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakuda/iret/labo/CODA/CODA_DOCUMENT/03.バック設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D72CC92-BCD2-614B-A1F9-04CC39202657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AE0808-6015-3647-8BE1-3BD910F4EDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32140" yWindow="5260" windowWidth="27020" windowHeight="12240" activeTab="1" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
+    <workbookView xWindow="-32620" yWindow="3600" windowWidth="27020" windowHeight="12240" firstSheet="1" activeTab="6" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
   </bookViews>
   <sheets>
     <sheet name="C001.ユーザーアカウント新規登録" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="65">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -278,10 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/scores/delete/{score_id}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>譜面情報を削除する</t>
     <rPh sb="0" eb="1">
       <t>フメn</t>
@@ -386,10 +382,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{score_id}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C101</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -434,6 +426,10 @@
     <rPh sb="0" eb="4">
       <t>ニンショウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DELETE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1055,13 +1051,13 @@
     <row r="9" spans="1:10">
       <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -1072,13 +1068,13 @@
     <row r="10" spans="1:10">
       <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -1109,13 +1105,13 @@
     <row r="14" spans="1:10">
       <c r="A14" s="14"/>
       <c r="B14" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
@@ -1139,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC08D87-797A-DE4F-9F57-701A2FDC2220}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1243,13 +1239,13 @@
     <row r="9" spans="1:6">
       <c r="A9" s="14"/>
       <c r="B9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -1284,13 +1280,13 @@
     <row r="13" spans="1:6">
       <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
@@ -1298,13 +1294,13 @@
     <row r="14" spans="1:6">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
@@ -1370,7 +1366,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -1412,31 +1408,31 @@
         <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="14"/>
       <c r="B9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8"/>
@@ -1520,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -1532,7 +1528,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -1556,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -1592,13 +1588,13 @@
     <row r="9" spans="1:6">
       <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -1606,13 +1602,13 @@
     <row r="10" spans="1:6">
       <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -1640,13 +1636,13 @@
     <row r="14" spans="1:6">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
@@ -1690,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -1775,13 +1771,13 @@
     <row r="9" spans="1:10">
       <c r="A9" s="14"/>
       <c r="B9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -1812,10 +1808,10 @@
     <row r="13" spans="1:10">
       <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
@@ -1824,10 +1820,10 @@
     <row r="14" spans="1:10">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
@@ -1853,7 +1849,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="A8" sqref="A8:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1872,7 +1868,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -1957,13 +1953,13 @@
     <row r="9" spans="1:10">
       <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -1974,13 +1970,13 @@
     <row r="10" spans="1:10">
       <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -2011,10 +2007,10 @@
     <row r="14" spans="1:10">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
@@ -2037,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26808245-359A-7D47-8A73-FC2CD23547DC}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2059,7 +2055,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -2083,7 +2079,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -2095,7 +2091,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -2107,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -2144,13 +2140,13 @@
     <row r="9" spans="1:10">
       <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -2158,43 +2154,57 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="13" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="14"/>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="14"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="1"/>
+    <row r="14" spans="1:10">
+      <c r="A14" s="14"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
